--- a/src/algorithms/plan_fact_module/NEV.xlsx
+++ b/src/algorithms/plan_fact_module/NEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="11">
   <si>
     <t>CarAmount</t>
   </si>
@@ -51,7 +51,7 @@
     <t>КОНЦЕНТР ЦИН</t>
   </si>
   <si>
-    <t>Риддер</t>
+    <t>Усть-Таловка</t>
   </si>
 </sst>
 </file>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:L272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +458,7 @@
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -475,9 +475,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44378</v>
+        <v>44228</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -491,10 +491,14 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>44379</v>
+        <v>44229</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -508,10 +512,14 @@
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>44380</v>
+        <v>44230</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -525,10 +533,14 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>44381</v>
+        <v>44231</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -542,10 +554,14 @@
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>44382</v>
+        <v>44232</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -559,10 +575,14 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>44383</v>
+        <v>44233</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -576,10 +596,14 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>44384</v>
+        <v>44234</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -593,10 +617,14 @@
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>44385</v>
+        <v>44235</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -610,10 +638,14 @@
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>44386</v>
+        <v>44236</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -627,10 +659,14 @@
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>44387</v>
+        <v>44237</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -644,13 +680,17 @@
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>44388</v>
+        <v>44238</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -661,13 +701,17 @@
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>44389</v>
+        <v>44239</v>
       </c>
       <c r="B13" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -678,13 +722,17 @@
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>44390</v>
+        <v>44240</v>
       </c>
       <c r="B14" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -695,13 +743,17 @@
       <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>44391</v>
+        <v>44241</v>
       </c>
       <c r="B15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
@@ -712,13 +764,17 @@
       <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>44392</v>
+        <v>44242</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
@@ -729,13 +785,17 @@
       <c r="E16" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>44393</v>
+        <v>44243</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
@@ -746,13 +806,17 @@
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>44394</v>
+        <v>44244</v>
       </c>
       <c r="B18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
@@ -763,10 +827,14 @@
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>44395</v>
+        <v>44245</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -780,13 +848,17 @@
       <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H19" s="3"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>44396</v>
+        <v>44246</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -797,10 +869,14 @@
       <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>44397</v>
+        <v>44247</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -814,10 +890,14 @@
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H21" s="3"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="4"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>44398</v>
+        <v>44248</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -831,10 +911,14 @@
       <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H22" s="3"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>44399</v>
+        <v>44249</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -848,10 +932,14 @@
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="4"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>44400</v>
+        <v>44250</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -865,10 +953,14 @@
       <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H24" s="3"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>44401</v>
+        <v>44251</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -882,10 +974,14 @@
       <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H25" s="3"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>44402</v>
+        <v>44252</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -899,10 +995,14 @@
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H26" s="3"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>44403</v>
+        <v>44253</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -916,10 +1016,14 @@
       <c r="E27" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H27" s="3"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="4"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>44404</v>
+        <v>44254</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -933,10 +1037,14 @@
       <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H28" s="3"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="4"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>44405</v>
+        <v>44255</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -950,10 +1058,14 @@
       <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H29" s="3"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="4"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>44406</v>
+        <v>44256</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -967,10 +1079,14 @@
       <c r="E30" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H30" s="3"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="4"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>44407</v>
+        <v>44257</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -984,10 +1100,14 @@
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H31" s="3"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="4"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>44408</v>
+        <v>44258</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -1001,546 +1121,705 @@
       <c r="E32" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="H32" s="3"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="4"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>44378</v>
+        <v>44259</v>
       </c>
       <c r="B33" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>44379</v>
+        <v>44260</v>
       </c>
       <c r="B34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>44380</v>
+        <v>44261</v>
       </c>
       <c r="B35" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>44381</v>
+        <v>44262</v>
       </c>
       <c r="B36" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>44382</v>
+        <v>44263</v>
       </c>
       <c r="B37" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>44383</v>
+        <v>44264</v>
       </c>
       <c r="B38" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>44384</v>
+        <v>44265</v>
       </c>
       <c r="B39" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>44385</v>
+        <v>44266</v>
       </c>
       <c r="B40" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>44386</v>
+        <v>44267</v>
       </c>
       <c r="B41" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>44387</v>
+        <v>44268</v>
       </c>
       <c r="B42" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>44388</v>
+        <v>44269</v>
       </c>
       <c r="B43" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>44389</v>
+        <v>44270</v>
       </c>
       <c r="B44" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>44390</v>
+        <v>44271</v>
       </c>
       <c r="B45" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>44391</v>
+        <v>44272</v>
       </c>
       <c r="B46" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>44392</v>
+        <v>44273</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>44393</v>
+        <v>44274</v>
       </c>
       <c r="B48" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>44394</v>
+        <v>44275</v>
       </c>
       <c r="B49" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>44395</v>
+        <v>44276</v>
       </c>
       <c r="B50" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>44396</v>
+        <v>44277</v>
       </c>
       <c r="B51" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>44397</v>
+        <v>44278</v>
       </c>
       <c r="B52" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>44398</v>
+        <v>44279</v>
       </c>
       <c r="B53" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>44399</v>
+        <v>44280</v>
       </c>
       <c r="B54" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>44400</v>
+        <v>44281</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>44401</v>
+        <v>44282</v>
       </c>
       <c r="B56" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>44402</v>
+        <v>44283</v>
       </c>
       <c r="B57" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>44403</v>
+        <v>44284</v>
       </c>
       <c r="B58" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>44404</v>
+        <v>44285</v>
       </c>
       <c r="B59" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>44405</v>
+        <v>44286</v>
       </c>
       <c r="B60" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>44406</v>
+        <v>44317</v>
       </c>
       <c r="B61" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>44407</v>
+        <v>44318</v>
       </c>
       <c r="B62" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>44408</v>
+        <v>44319</v>
       </c>
       <c r="B63" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>44378</v>
+        <v>44320</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>10</v>
+      <c r="D64" t="s">
+        <v>8</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>9</v>
@@ -1548,7 +1827,7 @@
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>44379</v>
+        <v>44321</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -1556,8 +1835,8 @@
       <c r="C65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>10</v>
+      <c r="D65" t="s">
+        <v>8</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>9</v>
@@ -1565,16 +1844,16 @@
     </row>
     <row r="66" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>44380</v>
+        <v>44322</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>10</v>
+      <c r="D66" t="s">
+        <v>8</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>9</v>
@@ -1582,7 +1861,7 @@
     </row>
     <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>44381</v>
+        <v>44323</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1590,8 +1869,8 @@
       <c r="C67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>10</v>
+      <c r="D67" t="s">
+        <v>8</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>9</v>
@@ -1599,16 +1878,16 @@
     </row>
     <row r="68" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>44382</v>
+        <v>44324</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>10</v>
+      <c r="D68" t="s">
+        <v>8</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>9</v>
@@ -1616,7 +1895,7 @@
     </row>
     <row r="69" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>44383</v>
+        <v>44325</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -1624,8 +1903,8 @@
       <c r="C69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>10</v>
+      <c r="D69" t="s">
+        <v>8</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>9</v>
@@ -1633,16 +1912,16 @@
     </row>
     <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>44384</v>
+        <v>44326</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>10</v>
+      <c r="D70" t="s">
+        <v>8</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>9</v>
@@ -1650,7 +1929,7 @@
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>44385</v>
+        <v>44327</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -1658,8 +1937,8 @@
       <c r="C71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>10</v>
+      <c r="D71" t="s">
+        <v>8</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
@@ -1667,7 +1946,7 @@
     </row>
     <row r="72" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>44386</v>
+        <v>44328</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -1675,8 +1954,8 @@
       <c r="C72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>10</v>
+      <c r="D72" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>9</v>
@@ -1684,7 +1963,7 @@
     </row>
     <row r="73" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>44387</v>
+        <v>44329</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -1692,8 +1971,8 @@
       <c r="C73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>10</v>
+      <c r="D73" t="s">
+        <v>8</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
@@ -1701,7 +1980,7 @@
     </row>
     <row r="74" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>44388</v>
+        <v>44330</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -1709,8 +1988,8 @@
       <c r="C74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>10</v>
+      <c r="D74" t="s">
+        <v>8</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>9</v>
@@ -1718,7 +1997,7 @@
     </row>
     <row r="75" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>44389</v>
+        <v>44331</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -1726,8 +2005,8 @@
       <c r="C75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>10</v>
+      <c r="D75" t="s">
+        <v>8</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>9</v>
@@ -1735,16 +2014,16 @@
     </row>
     <row r="76" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>44390</v>
+        <v>44332</v>
       </c>
       <c r="B76" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>10</v>
+      <c r="D76" t="s">
+        <v>8</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>9</v>
@@ -1752,16 +2031,16 @@
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>44391</v>
+        <v>44333</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>10</v>
+      <c r="D77" t="s">
+        <v>8</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>9</v>
@@ -1769,16 +2048,16 @@
     </row>
     <row r="78" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>44392</v>
+        <v>44334</v>
       </c>
       <c r="B78" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>10</v>
+      <c r="D78" t="s">
+        <v>8</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>9</v>
@@ -1786,16 +2065,16 @@
     </row>
     <row r="79" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>44393</v>
+        <v>44335</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>10</v>
+      <c r="D79" t="s">
+        <v>8</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
@@ -1803,16 +2082,16 @@
     </row>
     <row r="80" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>44394</v>
+        <v>44336</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>10</v>
+      <c r="D80" t="s">
+        <v>8</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>9</v>
@@ -1820,7 +2099,7 @@
     </row>
     <row r="81" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>44395</v>
+        <v>44337</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -1828,8 +2107,8 @@
       <c r="C81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>10</v>
+      <c r="D81" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>9</v>
@@ -1837,16 +2116,16 @@
     </row>
     <row r="82" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>44396</v>
+        <v>44338</v>
       </c>
       <c r="B82" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>10</v>
+      <c r="D82" t="s">
+        <v>8</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>9</v>
@@ -1854,16 +2133,16 @@
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>44397</v>
+        <v>44339</v>
       </c>
       <c r="B83" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>10</v>
+      <c r="D83" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>9</v>
@@ -1871,16 +2150,16 @@
     </row>
     <row r="84" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>44398</v>
+        <v>44340</v>
       </c>
       <c r="B84" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>10</v>
+      <c r="D84" t="s">
+        <v>8</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>9</v>
@@ -1888,16 +2167,16 @@
     </row>
     <row r="85" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>44399</v>
+        <v>44341</v>
       </c>
       <c r="B85" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>10</v>
+      <c r="D85" t="s">
+        <v>8</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>9</v>
@@ -1905,7 +2184,7 @@
     </row>
     <row r="86" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>44400</v>
+        <v>44342</v>
       </c>
       <c r="B86" s="1">
         <v>5</v>
@@ -1913,8 +2192,8 @@
       <c r="C86" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>10</v>
+      <c r="D86" t="s">
+        <v>8</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>9</v>
@@ -1922,7 +2201,7 @@
     </row>
     <row r="87" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>44401</v>
+        <v>44343</v>
       </c>
       <c r="B87" s="1">
         <v>5</v>
@@ -1930,8 +2209,8 @@
       <c r="C87" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>10</v>
+      <c r="D87" t="s">
+        <v>8</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>9</v>
@@ -1939,16 +2218,16 @@
     </row>
     <row r="88" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>44402</v>
+        <v>44344</v>
       </c>
       <c r="B88" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>10</v>
+      <c r="D88" t="s">
+        <v>8</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>9</v>
@@ -1956,16 +2235,16 @@
     </row>
     <row r="89" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>44403</v>
+        <v>44345</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>10</v>
+      <c r="D89" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>9</v>
@@ -1973,16 +2252,16 @@
     </row>
     <row r="90" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>44404</v>
+        <v>44346</v>
       </c>
       <c r="B90" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>10</v>
+      <c r="D90" t="s">
+        <v>8</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>9</v>
@@ -1990,7 +2269,7 @@
     </row>
     <row r="91" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>44405</v>
+        <v>44347</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -1998,8 +2277,8 @@
       <c r="C91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>10</v>
+      <c r="D91" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>9</v>
@@ -2007,7 +2286,7 @@
     </row>
     <row r="92" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>44406</v>
+        <v>44228</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -2015,780 +2294,3058 @@
       <c r="C92" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>9</v>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>44407</v>
+        <v>44229</v>
       </c>
       <c r="B93" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>9</v>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>44408</v>
+        <v>44230</v>
       </c>
       <c r="B94" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D113" s="5"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D115" s="5"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D117" s="5"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D118" s="5"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D119" s="5"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D120" s="5"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D121" s="5"/>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>44231</v>
+      </c>
+      <c r="B95" s="1">
+        <v>10</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>44232</v>
+      </c>
+      <c r="B96" s="1">
+        <v>10</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>44233</v>
+      </c>
+      <c r="B97" s="1">
+        <v>10</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>44234</v>
+      </c>
+      <c r="B98" s="1">
+        <v>10</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B99" s="1">
+        <v>10</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>44236</v>
+      </c>
+      <c r="B100" s="1">
+        <v>10</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>44237</v>
+      </c>
+      <c r="B101" s="1">
+        <v>10</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>44238</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>44239</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>44240</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>44241</v>
+      </c>
+      <c r="B105" s="1">
+        <v>5</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>44244</v>
+      </c>
+      <c r="B108" s="1">
+        <v>5</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>44245</v>
+      </c>
+      <c r="B109" s="1">
+        <v>5</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>44246</v>
+      </c>
+      <c r="B110" s="1">
+        <v>5</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B111" s="1">
+        <v>5</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B112" s="1">
+        <v>5</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B113" s="1">
+        <v>5</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>44250</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B115" s="1">
+        <v>5</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>44252</v>
+      </c>
+      <c r="B116" s="1">
+        <v>5</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>44253</v>
+      </c>
+      <c r="B117" s="1">
+        <v>5</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>44254</v>
+      </c>
+      <c r="B118" s="1">
+        <v>5</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>44257</v>
+      </c>
+      <c r="B121" s="1">
+        <v>10</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A122" s="3"/>
-      <c r="B122" s="1"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="3">
+        <v>44258</v>
+      </c>
+      <c r="B122" s="1">
+        <v>5</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="123" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A123" s="3"/>
-      <c r="B123" s="1"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="3">
+        <v>44259</v>
+      </c>
+      <c r="B123" s="1">
+        <v>10</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="124" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A124" s="3"/>
-      <c r="B124" s="1"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="3">
+        <v>44260</v>
+      </c>
+      <c r="B124" s="1">
+        <v>5</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="125" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A125" s="3"/>
-      <c r="B125" s="1"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="3">
+        <v>44261</v>
+      </c>
+      <c r="B125" s="1">
+        <v>10</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="126" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A126" s="3"/>
-      <c r="B126" s="1"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="3">
+        <v>44262</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="127" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A127" s="3"/>
-      <c r="B127" s="1"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="3">
+        <v>44263</v>
+      </c>
+      <c r="B127" s="1">
+        <v>10</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="128" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A128" s="3"/>
-      <c r="B128" s="1"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="3">
+        <v>44264</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="129" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="3"/>
-      <c r="B129" s="1"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B129" s="1">
+        <v>10</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="130" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A130" s="3"/>
-      <c r="B130" s="1"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B130" s="1">
+        <v>5</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="131" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A131" s="3"/>
-      <c r="B131" s="1"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B131" s="1">
+        <v>10</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A132" s="3"/>
-      <c r="B132" s="1"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B132" s="1">
+        <v>5</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A133" s="3"/>
-      <c r="B133" s="1"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="2"/>
+      <c r="A133" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B133" s="1">
+        <v>10</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A134" s="3"/>
-      <c r="B134" s="1"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B134" s="1">
+        <v>5</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A135" s="3"/>
-      <c r="B135" s="1"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B135" s="1">
+        <v>5</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="136" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A136" s="3"/>
-      <c r="B136" s="1"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="3">
+        <v>44272</v>
+      </c>
+      <c r="B136" s="1">
+        <v>5</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="137" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A137" s="3"/>
-      <c r="B137" s="1"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="3">
+        <v>44273</v>
+      </c>
+      <c r="B137" s="1">
+        <v>5</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="138" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A138" s="3"/>
-      <c r="B138" s="1"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="3">
+        <v>44274</v>
+      </c>
+      <c r="B138" s="1">
+        <v>5</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="139" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A139" s="3"/>
-      <c r="B139" s="1"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A140" s="3"/>
-      <c r="B140" s="1"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="3">
+        <v>44276</v>
+      </c>
+      <c r="B140" s="1">
+        <v>5</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A141" s="3"/>
-      <c r="B141" s="1"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B141" s="1">
+        <v>5</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A142" s="3"/>
-      <c r="B142" s="1"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B142" s="1">
+        <v>5</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="143" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A143" s="3"/>
-      <c r="B143" s="1"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B143" s="1">
+        <v>5</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="144" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A144" s="3"/>
-      <c r="B144" s="1"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B144" s="1">
+        <v>5</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="145" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A145" s="3"/>
-      <c r="B145" s="1"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B145" s="1">
+        <v>5</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="146" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A146" s="3"/>
-      <c r="B146" s="1"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B146" s="1">
+        <v>5</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="147" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A147" s="3"/>
-      <c r="B147" s="1"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B147" s="1">
+        <v>5</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="148" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A148" s="3"/>
-      <c r="B148" s="1"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="2"/>
+      <c r="A148" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B148" s="1">
+        <v>5</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="149" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A149" s="3"/>
-      <c r="B149" s="1"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B149" s="1">
+        <v>5</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="150" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="1"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B150" s="1">
+        <v>5</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="151" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A151" s="3"/>
-      <c r="B151" s="1"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="152" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A152" s="3"/>
-      <c r="B152" s="1"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="2"/>
+      <c r="A152" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B152" s="1">
+        <v>5</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="153" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A153" s="3"/>
-      <c r="B153" s="1"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B153" s="1">
+        <v>5</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="154" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A154" s="3"/>
-      <c r="B154" s="1"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="2"/>
+      <c r="A154" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B154" s="1">
+        <v>5</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="155" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A155" s="3"/>
-      <c r="B155" s="1"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B155" s="1">
+        <v>5</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="156" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A156" s="3"/>
-      <c r="B156" s="1"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="3">
+        <v>44322</v>
+      </c>
+      <c r="B156" s="1">
+        <v>5</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="157" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A157" s="3"/>
-      <c r="B157" s="1"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="3">
+        <v>44323</v>
+      </c>
+      <c r="B157" s="1">
+        <v>5</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="158" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A158" s="3"/>
-      <c r="B158" s="1"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="3">
+        <v>44324</v>
+      </c>
+      <c r="B158" s="1">
+        <v>5</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="159" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A159" s="3"/>
-      <c r="B159" s="1"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="3">
+        <v>44325</v>
+      </c>
+      <c r="B159" s="1">
+        <v>5</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="160" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A160" s="3"/>
-      <c r="B160" s="1"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="2"/>
+      <c r="A160" s="3">
+        <v>44326</v>
+      </c>
+      <c r="B160" s="1">
+        <v>5</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="161" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A161" s="3"/>
-      <c r="B161" s="1"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="2"/>
+      <c r="A161" s="3">
+        <v>44327</v>
+      </c>
+      <c r="B161" s="1">
+        <v>10</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="162" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A162" s="3"/>
-      <c r="B162" s="1"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="3">
+        <v>44328</v>
+      </c>
+      <c r="B162" s="1">
+        <v>10</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="163" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A163" s="3"/>
-      <c r="B163" s="1"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="3">
+        <v>44329</v>
+      </c>
+      <c r="B163" s="1">
+        <v>10</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="164" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A164" s="3"/>
-      <c r="B164" s="1"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="2"/>
+      <c r="A164" s="3">
+        <v>44330</v>
+      </c>
+      <c r="B164" s="1">
+        <v>10</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="165" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A165" s="3"/>
-      <c r="B165" s="1"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="2"/>
+      <c r="A165" s="3">
+        <v>44331</v>
+      </c>
+      <c r="B165" s="1">
+        <v>10</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="166" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A166" s="3"/>
-      <c r="B166" s="1"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="2"/>
+      <c r="A166" s="3">
+        <v>44332</v>
+      </c>
+      <c r="B166" s="1">
+        <v>5</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="167" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A167" s="3"/>
-      <c r="B167" s="1"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="2"/>
+      <c r="A167" s="3">
+        <v>44333</v>
+      </c>
+      <c r="B167" s="1">
+        <v>5</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="168" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A168" s="3"/>
-      <c r="B168" s="1"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="2"/>
+      <c r="A168" s="3">
+        <v>44334</v>
+      </c>
+      <c r="B168" s="1">
+        <v>5</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="169" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A169" s="3"/>
-      <c r="B169" s="1"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="2"/>
+      <c r="A169" s="3">
+        <v>44335</v>
+      </c>
+      <c r="B169" s="1">
+        <v>5</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="170" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A170" s="3"/>
-      <c r="B170" s="1"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="2"/>
+      <c r="A170" s="3">
+        <v>44336</v>
+      </c>
+      <c r="B170" s="1">
+        <v>5</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="171" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="1"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="2"/>
+      <c r="A171" s="3">
+        <v>44337</v>
+      </c>
+      <c r="B171" s="1">
+        <v>10</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="172" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A172" s="3"/>
-      <c r="B172" s="1"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="2"/>
+      <c r="A172" s="3">
+        <v>44338</v>
+      </c>
+      <c r="B172" s="1">
+        <v>10</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="173" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A173" s="3"/>
-      <c r="B173" s="1"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="2"/>
+      <c r="A173" s="3">
+        <v>44339</v>
+      </c>
+      <c r="B173" s="1">
+        <v>10</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="174" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A174" s="3"/>
-      <c r="B174" s="1"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="2"/>
+      <c r="A174" s="3">
+        <v>44340</v>
+      </c>
+      <c r="B174" s="1">
+        <v>10</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="175" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A175" s="3"/>
-      <c r="B175" s="1"/>
-      <c r="E175" s="2"/>
+      <c r="A175" s="3">
+        <v>44341</v>
+      </c>
+      <c r="B175" s="1">
+        <v>10</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="176" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A176" s="3"/>
-      <c r="B176" s="1"/>
-      <c r="E176" s="2"/>
+      <c r="A176" s="3">
+        <v>44342</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="177" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A177" s="3"/>
-      <c r="B177" s="1"/>
-      <c r="E177" s="2"/>
+      <c r="A177" s="3">
+        <v>44343</v>
+      </c>
+      <c r="B177" s="1">
+        <v>5</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="178" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="1"/>
-      <c r="E178" s="2"/>
+      <c r="A178" s="3">
+        <v>44344</v>
+      </c>
+      <c r="B178" s="1">
+        <v>5</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="179" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A179" s="3"/>
-      <c r="B179" s="1"/>
-      <c r="E179" s="2"/>
+      <c r="A179" s="3">
+        <v>44345</v>
+      </c>
+      <c r="B179" s="1">
+        <v>5</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="180" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A180" s="3"/>
-      <c r="B180" s="1"/>
-      <c r="E180" s="2"/>
+      <c r="A180" s="3">
+        <v>44346</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="181" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A181" s="3"/>
-      <c r="B181" s="1"/>
-      <c r="E181" s="2"/>
+      <c r="A181" s="3">
+        <v>44347</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="182" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A182" s="3"/>
-      <c r="B182" s="1"/>
-      <c r="E182" s="2"/>
+      <c r="A182" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B182" s="1">
+        <v>3</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="183" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A183" s="3"/>
-      <c r="B183" s="1"/>
-      <c r="E183" s="2"/>
+      <c r="A183" s="3">
+        <v>44229</v>
+      </c>
+      <c r="B183" s="1">
+        <v>3</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="184" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A184" s="3"/>
-      <c r="B184" s="1"/>
-      <c r="E184" s="2"/>
+      <c r="A184" s="3">
+        <v>44230</v>
+      </c>
+      <c r="B184" s="1">
+        <v>3</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="185" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A185" s="3"/>
-      <c r="B185" s="1"/>
-      <c r="E185" s="2"/>
+      <c r="A185" s="3">
+        <v>44231</v>
+      </c>
+      <c r="B185" s="1">
+        <v>3</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="186" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A186" s="3"/>
-      <c r="B186" s="1"/>
-      <c r="E186" s="2"/>
+      <c r="A186" s="3">
+        <v>44232</v>
+      </c>
+      <c r="B186" s="1">
+        <v>4</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="187" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A187" s="3"/>
-      <c r="B187" s="1"/>
-      <c r="E187" s="2"/>
+      <c r="A187" s="3">
+        <v>44233</v>
+      </c>
+      <c r="B187" s="1">
+        <v>4</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="188" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A188" s="3"/>
-      <c r="B188" s="1"/>
-      <c r="E188" s="2"/>
+      <c r="A188" s="3">
+        <v>44234</v>
+      </c>
+      <c r="B188" s="1">
+        <v>4</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="189" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A189" s="3"/>
-      <c r="B189" s="1"/>
-      <c r="E189" s="2"/>
+      <c r="A189" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B189" s="1">
+        <v>4</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="190" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A190" s="3"/>
-      <c r="B190" s="1"/>
-      <c r="E190" s="2"/>
+      <c r="A190" s="3">
+        <v>44236</v>
+      </c>
+      <c r="B190" s="1">
+        <v>4</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="191" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A191" s="3"/>
-      <c r="B191" s="1"/>
-      <c r="E191" s="2"/>
+      <c r="A191" s="3">
+        <v>44237</v>
+      </c>
+      <c r="B191" s="1">
+        <v>4</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="192" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A192" s="3"/>
-      <c r="B192" s="1"/>
-      <c r="E192" s="2"/>
+      <c r="A192" s="3">
+        <v>44238</v>
+      </c>
+      <c r="B192" s="1">
+        <v>3</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="193" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A193" s="3"/>
-      <c r="B193" s="1"/>
-      <c r="E193" s="2"/>
+      <c r="A193" s="3">
+        <v>44239</v>
+      </c>
+      <c r="B193" s="1">
+        <v>3</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="194" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A194" s="3"/>
-      <c r="B194" s="1"/>
-      <c r="E194" s="2"/>
+      <c r="A194" s="3">
+        <v>44240</v>
+      </c>
+      <c r="B194" s="1">
+        <v>3</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="195" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A195" s="3"/>
-      <c r="B195" s="1"/>
-      <c r="E195" s="2"/>
+      <c r="A195" s="3">
+        <v>44241</v>
+      </c>
+      <c r="B195" s="1">
+        <v>3</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="196" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A196" s="3"/>
-      <c r="B196" s="1"/>
-      <c r="E196" s="2"/>
+      <c r="A196" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B196" s="1">
+        <v>3</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="197" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A197" s="3"/>
-      <c r="B197" s="1"/>
-      <c r="E197" s="2"/>
+      <c r="A197" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B197" s="1">
+        <v>3</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="198" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A198" s="3"/>
-      <c r="B198" s="1"/>
-      <c r="E198" s="2"/>
+      <c r="A198" s="3">
+        <v>44244</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="199" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A199" s="3"/>
-      <c r="B199" s="1"/>
-      <c r="E199" s="2"/>
+      <c r="A199" s="3">
+        <v>44245</v>
+      </c>
+      <c r="B199" s="1">
+        <v>3</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="200" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A200" s="3"/>
-      <c r="B200" s="1"/>
-      <c r="E200" s="2"/>
+      <c r="A200" s="3">
+        <v>44246</v>
+      </c>
+      <c r="B200" s="1">
+        <v>3</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="201" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A201" s="3"/>
-      <c r="B201" s="1"/>
-      <c r="E201" s="2"/>
+      <c r="A201" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B201" s="1">
+        <v>3</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="202" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A202" s="3"/>
-      <c r="B202" s="1"/>
-      <c r="E202" s="2"/>
+      <c r="A202" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B202" s="1">
+        <v>3</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="203" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A203" s="3"/>
-      <c r="B203" s="1"/>
-      <c r="E203" s="2"/>
+      <c r="A203" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B203" s="1">
+        <v>3</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="204" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A204" s="3"/>
-      <c r="B204" s="1"/>
-      <c r="E204" s="2"/>
+      <c r="A204" s="3">
+        <v>44250</v>
+      </c>
+      <c r="B204" s="1">
+        <v>3</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="205" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A205" s="3"/>
-      <c r="B205" s="1"/>
-      <c r="E205" s="2"/>
+      <c r="A205" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B205" s="1">
+        <v>0</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="206" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A206" s="3"/>
-      <c r="B206" s="1"/>
-      <c r="E206" s="2"/>
+      <c r="A206" s="3">
+        <v>44252</v>
+      </c>
+      <c r="B206" s="1">
+        <v>0</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="207" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A207" s="3"/>
-      <c r="B207" s="1"/>
-      <c r="E207" s="2"/>
+      <c r="A207" s="3">
+        <v>44253</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="208" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A208" s="3"/>
-      <c r="B208" s="1"/>
-      <c r="E208" s="2"/>
+      <c r="A208" s="3">
+        <v>44254</v>
+      </c>
+      <c r="B208" s="1">
+        <v>0</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="209" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A209" s="3"/>
-      <c r="B209" s="1"/>
-      <c r="E209" s="2"/>
+      <c r="A209" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="210" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A210" s="3"/>
-      <c r="B210" s="1"/>
-      <c r="E210" s="2"/>
+      <c r="A210" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B210" s="1">
+        <v>3</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="211" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A211" s="3"/>
-      <c r="B211" s="1"/>
-      <c r="E211" s="2"/>
+      <c r="A211" s="3">
+        <v>44257</v>
+      </c>
+      <c r="B211" s="1">
+        <v>3</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="212" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A212" s="3"/>
-      <c r="B212" s="1"/>
-      <c r="E212" s="2"/>
+      <c r="A212" s="3">
+        <v>44258</v>
+      </c>
+      <c r="B212" s="1">
+        <v>3</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="213" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A213" s="3"/>
-      <c r="B213" s="1"/>
-      <c r="E213" s="2"/>
+      <c r="A213" s="3">
+        <v>44259</v>
+      </c>
+      <c r="B213" s="1">
+        <v>3</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="214" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A214" s="3"/>
-      <c r="B214" s="1"/>
-      <c r="E214" s="2"/>
+      <c r="A214" s="3">
+        <v>44260</v>
+      </c>
+      <c r="B214" s="1">
+        <v>3</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="215" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A215" s="3"/>
-      <c r="B215" s="1"/>
-      <c r="E215" s="2"/>
+      <c r="A215" s="3">
+        <v>44261</v>
+      </c>
+      <c r="B215" s="1">
+        <v>3</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="216" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A216" s="3"/>
-      <c r="B216" s="1"/>
-      <c r="E216" s="2"/>
+      <c r="A216" s="3">
+        <v>44262</v>
+      </c>
+      <c r="B216" s="1">
+        <v>3</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="217" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A217" s="3"/>
-      <c r="B217" s="1"/>
-      <c r="E217" s="2"/>
+      <c r="A217" s="3">
+        <v>44263</v>
+      </c>
+      <c r="B217" s="1">
+        <v>3</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="218" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A218" s="3"/>
-      <c r="B218" s="1"/>
-      <c r="E218" s="2"/>
+      <c r="A218" s="3">
+        <v>44264</v>
+      </c>
+      <c r="B218" s="1">
+        <v>3</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="219" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
-      <c r="B219" s="1"/>
-      <c r="E219" s="2"/>
+      <c r="A219" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B219" s="1">
+        <v>3</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="220" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A220" s="3"/>
-      <c r="B220" s="1"/>
-      <c r="E220" s="2"/>
+      <c r="A220" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B220" s="1">
+        <v>3</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="221" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A221" s="3"/>
-      <c r="B221" s="1"/>
-      <c r="E221" s="2"/>
+      <c r="A221" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B221" s="1">
+        <v>3</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="222" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A222" s="3"/>
-      <c r="B222" s="1"/>
-      <c r="E222" s="2"/>
+      <c r="A222" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B222" s="1">
+        <v>3</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="223" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A223" s="3"/>
-      <c r="B223" s="1"/>
-      <c r="E223" s="2"/>
+      <c r="A223" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B223" s="1">
+        <v>3</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="224" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A224" s="3"/>
-      <c r="B224" s="1"/>
-      <c r="E224" s="2"/>
+      <c r="A224" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B224" s="1">
+        <v>3</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="225" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A225" s="3"/>
-      <c r="B225" s="1"/>
-      <c r="E225" s="2"/>
+      <c r="A225" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B225" s="1">
+        <v>3</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="226" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A226" s="3"/>
-      <c r="B226" s="1"/>
-      <c r="E226" s="2"/>
+      <c r="A226" s="3">
+        <v>44272</v>
+      </c>
+      <c r="B226" s="1">
+        <v>3</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="227" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A227" s="3"/>
-      <c r="B227" s="1"/>
-      <c r="E227" s="2"/>
+      <c r="A227" s="3">
+        <v>44273</v>
+      </c>
+      <c r="B227" s="1">
+        <v>3</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="228" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A228" s="3"/>
-      <c r="B228" s="1"/>
-      <c r="E228" s="2"/>
+      <c r="A228" s="3">
+        <v>44274</v>
+      </c>
+      <c r="B228" s="1">
+        <v>3</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="229" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A229" s="3"/>
-      <c r="B229" s="1"/>
-      <c r="E229" s="2"/>
+      <c r="A229" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B229" s="1">
+        <v>3</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="230" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A230" s="3"/>
-      <c r="B230" s="1"/>
-      <c r="E230" s="2"/>
+      <c r="A230" s="3">
+        <v>44276</v>
+      </c>
+      <c r="B230" s="1">
+        <v>3</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="231" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A231" s="3"/>
-      <c r="B231" s="1"/>
-      <c r="E231" s="2"/>
+      <c r="A231" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B231" s="1">
+        <v>3</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="232" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A232" s="3"/>
-      <c r="B232" s="1"/>
-      <c r="E232" s="2"/>
+      <c r="A232" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B232" s="1">
+        <v>3</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="233" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A233" s="3"/>
-      <c r="B233" s="1"/>
-      <c r="E233" s="2"/>
+      <c r="A233" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B233" s="1">
+        <v>3</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="234" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A234" s="3"/>
-      <c r="B234" s="1"/>
-      <c r="E234" s="2"/>
+      <c r="A234" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B234" s="1">
+        <v>3</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="235" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A235" s="3"/>
-      <c r="B235" s="1"/>
-      <c r="E235" s="2"/>
+      <c r="A235" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B235" s="1">
+        <v>2</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="236" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A236" s="3"/>
-      <c r="B236" s="1"/>
-      <c r="E236" s="2"/>
+      <c r="A236" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B236" s="1">
+        <v>0</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="237" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A237" s="3"/>
-      <c r="B237" s="1"/>
-      <c r="E237" s="2"/>
+      <c r="A237" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="238" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A238" s="3"/>
-      <c r="B238" s="1"/>
-      <c r="E238" s="2"/>
+      <c r="A238" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B238" s="1">
+        <v>0</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="239" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A239" s="3"/>
-      <c r="B239" s="1"/>
-      <c r="E239" s="2"/>
+      <c r="A239" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="240" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A240" s="3"/>
-      <c r="B240" s="1"/>
-      <c r="E240" s="2"/>
+      <c r="A240" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B240" s="1">
+        <v>0</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="241" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A241" s="3"/>
-      <c r="B241" s="1"/>
-      <c r="E241" s="2"/>
+      <c r="A241" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A242" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B242" s="1">
+        <v>2</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A243" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B243" s="1">
+        <v>2</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A244" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A245" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A246" s="3">
+        <v>44322</v>
+      </c>
+      <c r="B246" s="1">
+        <v>2</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A247" s="3">
+        <v>44323</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A248" s="3">
+        <v>44324</v>
+      </c>
+      <c r="B248" s="1">
+        <v>2</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A249" s="3">
+        <v>44325</v>
+      </c>
+      <c r="B249" s="1">
+        <v>2</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A250" s="3">
+        <v>44326</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A251" s="3">
+        <v>44327</v>
+      </c>
+      <c r="B251" s="1">
+        <v>2</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A252" s="3">
+        <v>44328</v>
+      </c>
+      <c r="B252" s="1">
+        <v>2</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A253" s="3">
+        <v>44329</v>
+      </c>
+      <c r="B253" s="1">
+        <v>2</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A254" s="3">
+        <v>44330</v>
+      </c>
+      <c r="B254" s="1">
+        <v>2</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A255" s="3">
+        <v>44331</v>
+      </c>
+      <c r="B255" s="1">
+        <v>2</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A256" s="3">
+        <v>44332</v>
+      </c>
+      <c r="B256" s="1">
+        <v>2</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A257" s="3">
+        <v>44333</v>
+      </c>
+      <c r="B257" s="1">
+        <v>2</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A258" s="3">
+        <v>44334</v>
+      </c>
+      <c r="B258" s="1">
+        <v>2</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A259" s="3">
+        <v>44335</v>
+      </c>
+      <c r="B259" s="1">
+        <v>2</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A260" s="3">
+        <v>44336</v>
+      </c>
+      <c r="B260" s="1">
+        <v>2</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A261" s="3">
+        <v>44337</v>
+      </c>
+      <c r="B261" s="1">
+        <v>2</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A262" s="3">
+        <v>44338</v>
+      </c>
+      <c r="B262" s="1">
+        <v>2</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A263" s="3">
+        <v>44339</v>
+      </c>
+      <c r="B263" s="1">
+        <v>2</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A264" s="3">
+        <v>44340</v>
+      </c>
+      <c r="B264" s="1">
+        <v>2</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A265" s="3">
+        <v>44341</v>
+      </c>
+      <c r="B265" s="1">
+        <v>0</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A266" s="3">
+        <v>44342</v>
+      </c>
+      <c r="B266" s="1">
+        <v>0</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A267" s="3">
+        <v>44343</v>
+      </c>
+      <c r="B267" s="1">
+        <v>0</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A268" s="3">
+        <v>44344</v>
+      </c>
+      <c r="B268" s="1">
+        <v>0</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A269" s="3">
+        <v>44345</v>
+      </c>
+      <c r="B269" s="1">
+        <v>0</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A270" s="3">
+        <v>44346</v>
+      </c>
+      <c r="B270" s="1">
+        <v>0</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A271" s="3">
+        <v>44347</v>
+      </c>
+      <c r="B271" s="1">
+        <v>0</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D272" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/algorithms/plan_fact_module/NEV.xlsx
+++ b/src/algorithms/plan_fact_module/NEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="11400" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="10">
   <si>
     <t>CarAmount</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Неверовская</t>
-  </si>
-  <si>
-    <t>Оскемен-1</t>
   </si>
   <si>
     <t>КОНЦЕНТР ЦИН</t>
@@ -331,7 +328,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -345,9 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,9 +801,11 @@
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>44409</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>44440</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
@@ -826,9 +822,11 @@
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>44410</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>44441</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -845,9 +843,11 @@
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>44411</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>44442</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -864,9 +864,11 @@
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>44412</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>44443</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -883,9 +885,11 @@
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>44413</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>44444</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -902,9 +906,11 @@
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>44414</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>44445</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -921,9 +927,11 @@
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>44415</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>44446</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -940,7 +948,7 @@
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>44416</v>
+        <v>44447</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
@@ -961,7 +969,7 @@
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>44417</v>
+        <v>44448</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
@@ -982,7 +990,7 @@
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>44418</v>
+        <v>44449</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
@@ -1003,10 +1011,10 @@
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>44419</v>
+        <v>44450</v>
       </c>
       <c r="B12" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -1024,7 +1032,7 @@
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>44420</v>
+        <v>44451</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -1045,7 +1053,7 @@
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>44421</v>
+        <v>44452</v>
       </c>
       <c r="B14" s="6">
         <v>5</v>
@@ -1066,7 +1074,7 @@
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>44422</v>
+        <v>44453</v>
       </c>
       <c r="B15" s="6">
         <v>5</v>
@@ -1087,7 +1095,7 @@
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>44423</v>
+        <v>44454</v>
       </c>
       <c r="B16" s="6">
         <v>10</v>
@@ -1108,10 +1116,10 @@
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>44424</v>
+        <v>44455</v>
       </c>
       <c r="B17" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
@@ -1129,10 +1137,10 @@
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>44425</v>
+        <v>44456</v>
       </c>
       <c r="B18" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
@@ -1150,10 +1158,10 @@
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>44426</v>
+        <v>44457</v>
       </c>
       <c r="B19" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
@@ -1171,7 +1179,7 @@
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>44427</v>
+        <v>44458</v>
       </c>
       <c r="B20" s="6">
         <v>10</v>
@@ -1192,10 +1200,10 @@
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>44428</v>
+        <v>44459</v>
       </c>
       <c r="B21" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
@@ -1213,10 +1221,10 @@
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>44429</v>
+        <v>44460</v>
       </c>
       <c r="B22" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
@@ -1234,10 +1242,10 @@
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>44430</v>
+        <v>44461</v>
       </c>
       <c r="B23" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>7</v>
@@ -1255,7 +1263,7 @@
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>44431</v>
+        <v>44462</v>
       </c>
       <c r="B24" s="6">
         <v>10</v>
@@ -1276,7 +1284,7 @@
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>44432</v>
+        <v>44463</v>
       </c>
       <c r="B25" s="6">
         <v>5</v>
@@ -1297,7 +1305,7 @@
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>44433</v>
+        <v>44464</v>
       </c>
       <c r="B26" s="6">
         <v>5</v>
@@ -1318,7 +1326,7 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>44434</v>
+        <v>44465</v>
       </c>
       <c r="B27" s="6">
         <v>5</v>
@@ -1339,7 +1347,7 @@
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>44435</v>
+        <v>44466</v>
       </c>
       <c r="B28" s="6">
         <v>5</v>
@@ -1360,7 +1368,7 @@
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>44436</v>
+        <v>44467</v>
       </c>
       <c r="B29" s="6">
         <v>5</v>
@@ -1381,7 +1389,7 @@
     </row>
     <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>44437</v>
+        <v>44468</v>
       </c>
       <c r="B30" s="6">
         <v>5</v>
@@ -1402,10 +1410,10 @@
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <v>44438</v>
+        <v>44469</v>
       </c>
       <c r="B31" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>7</v>
@@ -1423,19 +1431,19 @@
     </row>
     <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="B32" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>5</v>
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="1"/>
@@ -1443,18 +1451,20 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
-        <v>44409</v>
-      </c>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7">
+        <v>44441</v>
+      </c>
+      <c r="B33" s="6">
+        <v>4</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
@@ -1463,18 +1473,20 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>44410</v>
-      </c>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7">
+        <v>44442</v>
+      </c>
+      <c r="B34" s="6">
+        <v>4</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
@@ -1483,18 +1495,20 @@
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>44411</v>
-      </c>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7">
+        <v>44443</v>
+      </c>
+      <c r="B35" s="6">
+        <v>4</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="1"/>
@@ -1503,18 +1517,20 @@
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>44412</v>
-      </c>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7">
+        <v>44444</v>
+      </c>
+      <c r="B36" s="6">
+        <v>4</v>
+      </c>
       <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="1"/>
@@ -1523,18 +1539,20 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>44413</v>
-      </c>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7">
+        <v>44445</v>
+      </c>
+      <c r="B37" s="6">
+        <v>4</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="1"/>
@@ -1543,18 +1561,20 @@
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>44414</v>
-      </c>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7">
+        <v>44446</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
       <c r="C38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="1"/>
@@ -1563,18 +1583,20 @@
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>44415</v>
-      </c>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7">
+        <v>44447</v>
+      </c>
+      <c r="B39" s="6">
+        <v>4</v>
+      </c>
       <c r="C39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="1"/>
@@ -1583,20 +1605,20 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>44416</v>
+      <c r="A40" s="7">
+        <v>44448</v>
       </c>
       <c r="B40" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="1"/>
@@ -1605,20 +1627,20 @@
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>44417</v>
+      <c r="A41" s="7">
+        <v>44449</v>
       </c>
       <c r="B41" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="1"/>
@@ -1627,20 +1649,20 @@
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
-        <v>44418</v>
+      <c r="A42" s="7">
+        <v>44450</v>
       </c>
       <c r="B42" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="1"/>
@@ -1649,20 +1671,20 @@
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <v>44419</v>
+      <c r="A43" s="7">
+        <v>44451</v>
       </c>
       <c r="B43" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="1"/>
@@ -1671,20 +1693,20 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
-        <v>44420</v>
+      <c r="A44" s="7">
+        <v>44452</v>
       </c>
       <c r="B44" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="1"/>
@@ -1693,20 +1715,20 @@
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>44421</v>
+      <c r="A45" s="7">
+        <v>44453</v>
       </c>
       <c r="B45" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="1"/>
@@ -1715,20 +1737,20 @@
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
-        <v>44422</v>
+      <c r="A46" s="7">
+        <v>44454</v>
       </c>
       <c r="B46" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="1"/>
@@ -1737,20 +1759,20 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
-        <v>44423</v>
+      <c r="A47" s="7">
+        <v>44455</v>
       </c>
       <c r="B47" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="1"/>
@@ -1759,20 +1781,20 @@
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
-        <v>44424</v>
+      <c r="A48" s="7">
+        <v>44456</v>
       </c>
       <c r="B48" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="1"/>
@@ -1781,20 +1803,20 @@
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
-        <v>44425</v>
+      <c r="A49" s="7">
+        <v>44457</v>
       </c>
       <c r="B49" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="1"/>
@@ -1803,20 +1825,20 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
-        <v>44426</v>
+      <c r="A50" s="7">
+        <v>44458</v>
       </c>
       <c r="B50" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="1"/>
@@ -1825,20 +1847,20 @@
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
-        <v>44427</v>
+      <c r="A51" s="7">
+        <v>44459</v>
       </c>
       <c r="B51" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="1"/>
@@ -1847,20 +1869,20 @@
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
-        <v>44428</v>
+      <c r="A52" s="7">
+        <v>44460</v>
       </c>
       <c r="B52" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="1"/>
@@ -1869,20 +1891,20 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
-        <v>44429</v>
+      <c r="A53" s="7">
+        <v>44461</v>
       </c>
       <c r="B53" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="1"/>
@@ -1891,20 +1913,20 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
-        <v>44430</v>
+      <c r="A54" s="7">
+        <v>44462</v>
       </c>
       <c r="B54" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="1"/>
@@ -1913,20 +1935,20 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
-        <v>44431</v>
+      <c r="A55" s="7">
+        <v>44463</v>
       </c>
       <c r="B55" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="1"/>
@@ -1935,20 +1957,20 @@
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
-        <v>44432</v>
+      <c r="A56" s="7">
+        <v>44464</v>
       </c>
       <c r="B56" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="1"/>
@@ -1957,20 +1979,20 @@
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
-        <v>44433</v>
+      <c r="A57" s="7">
+        <v>44465</v>
       </c>
       <c r="B57" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="1"/>
@@ -1979,20 +2001,20 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
-        <v>44434</v>
+      <c r="A58" s="7">
+        <v>44466</v>
       </c>
       <c r="B58" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="1"/>
@@ -2001,20 +2023,20 @@
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A59" s="9">
-        <v>44435</v>
+      <c r="A59" s="7">
+        <v>44467</v>
       </c>
       <c r="B59" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="1"/>
@@ -2023,20 +2045,20 @@
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
-        <v>44436</v>
+      <c r="A60" s="7">
+        <v>44468</v>
       </c>
       <c r="B60" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="1"/>
@@ -2045,18 +2067,20 @@
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
-        <v>44437</v>
-      </c>
-      <c r="B61" s="6"/>
+      <c r="A61" s="7">
+        <v>44469</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0</v>
+      </c>
       <c r="C61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="1"/>
@@ -2065,19 +2089,6 @@
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="9">
-        <v>44438</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H62" s="3"/>
       <c r="I62" s="1"/>
       <c r="J62" s="4"/>
@@ -2085,911 +2096,420 @@
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
-        <v>44439</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H63" s="3"/>
       <c r="I63" s="1"/>
       <c r="J63" s="4"/>
       <c r="K63" s="5"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
-        <v>44409</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
-        <v>44410</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
-        <v>44411</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
-        <v>44412</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
-        <v>44413</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
-        <v>44414</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
-        <v>44415</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
-        <v>44416</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
-        <v>44417</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
-        <v>44418</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
-        <v>44419</v>
-      </c>
-      <c r="B74" s="6">
-        <v>3</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
-        <v>44420</v>
-      </c>
-      <c r="B75" s="6">
-        <v>3</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
-        <v>44421</v>
-      </c>
-      <c r="B76" s="6">
-        <v>3</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
-        <v>44422</v>
-      </c>
-      <c r="B77" s="6">
-        <v>3</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
-        <v>44423</v>
-      </c>
-      <c r="B78" s="6">
-        <v>3</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
-        <v>44424</v>
-      </c>
-      <c r="B79" s="6">
-        <v>3</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
-        <v>44425</v>
-      </c>
-      <c r="B80" s="6">
-        <v>3</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
-        <v>44426</v>
-      </c>
-      <c r="B81" s="6">
-        <v>3</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
-        <v>44427</v>
-      </c>
-      <c r="B82" s="6">
-        <v>3</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
-        <v>44428</v>
-      </c>
-      <c r="B83" s="6">
-        <v>3</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="8">
-        <v>44429</v>
-      </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
-        <v>44430</v>
-      </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="8">
-        <v>44431</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
-        <v>44432</v>
-      </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="8">
-        <v>44433</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="8">
-        <v>44434</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="8">
-        <v>44435</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="8">
-        <v>44436</v>
-      </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="8">
-        <v>44437</v>
-      </c>
+      <c r="A92" s="8"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
-        <v>44438</v>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="8">
-        <v>44439</v>
-      </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="10"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="6"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="10"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="10"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="10"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="10"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="10"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="10"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="6"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="10"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="6"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="10"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="6"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="6"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="10"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="6"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="10"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="6"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="10"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="6"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="6"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="10"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="6"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="6"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="10"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="6"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="10"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="6"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="10"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="6"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="10"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="6"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="10"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="6"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="10"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="6"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="6"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="10"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="10"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="10"/>
+      <c r="A121" s="9"/>
       <c r="B121" s="6"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
+      <c r="A122" s="9"/>
       <c r="B122" s="6"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="10"/>
+      <c r="A123" s="9"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="11"/>
+      <c r="A155" s="10"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="11"/>
+      <c r="A156" s="10"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="11"/>
+      <c r="A157" s="10"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="11"/>
+      <c r="A158" s="10"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="11"/>
+      <c r="A159" s="10"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="11"/>
+      <c r="A160" s="10"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="11"/>
+      <c r="A161" s="10"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="11"/>
+      <c r="A162" s="10"/>
       <c r="B162" s="6"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="11"/>
+      <c r="A163" s="10"/>
       <c r="B163" s="6"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="11"/>
+      <c r="A164" s="10"/>
       <c r="B164" s="6"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="11"/>
+      <c r="A165" s="10"/>
       <c r="B165" s="6"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="11"/>
+      <c r="A166" s="10"/>
       <c r="B166" s="6"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="11"/>
+      <c r="A167" s="10"/>
       <c r="B167" s="6"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="11"/>
+      <c r="A168" s="10"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="11"/>
+      <c r="A169" s="10"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="11"/>
+      <c r="A170" s="10"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="11"/>
+      <c r="A171" s="10"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="11"/>
+      <c r="A172" s="10"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="11"/>
+      <c r="A173" s="10"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="11"/>
+      <c r="A174" s="10"/>
       <c r="B174" s="6"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="11"/>
+      <c r="A175" s="10"/>
       <c r="B175" s="6"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="11"/>
+      <c r="A176" s="10"/>
       <c r="B176" s="6"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="11"/>
+      <c r="A177" s="10"/>
       <c r="B177" s="6"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="11"/>
+      <c r="A178" s="10"/>
       <c r="B178" s="6"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="11"/>
+      <c r="A179" s="10"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="11"/>
+      <c r="A180" s="10"/>
       <c r="B180" s="6"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="11"/>
+      <c r="A181" s="10"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="11"/>
+      <c r="A182" s="10"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="11"/>
+      <c r="A183" s="10"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>

--- a/src/algorithms/plan_fact_module/NEV.xlsx
+++ b/src/algorithms/plan_fact_module/NEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -770,7 +770,7 @@
   <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/algorithms/plan_fact_module/NEV.xlsx
+++ b/src/algorithms/plan_fact_module/NEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12000" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="12600" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/algorithms/plan_fact_module/NEV.xlsx
+++ b/src/algorithms/plan_fact_module/NEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12600" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="13200" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="10">
   <si>
     <t>CarAmount</t>
   </si>
@@ -328,7 +328,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -341,7 +341,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E61"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +800,7 @@
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -822,7 +821,7 @@
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>44441</v>
+        <v>44471</v>
       </c>
       <c r="B3" s="6">
         <v>5</v>
@@ -843,7 +842,7 @@
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>44442</v>
+        <v>44472</v>
       </c>
       <c r="B4" s="6">
         <v>5</v>
@@ -864,7 +863,7 @@
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>44443</v>
+        <v>44473</v>
       </c>
       <c r="B5" s="6">
         <v>5</v>
@@ -885,7 +884,7 @@
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>44444</v>
+        <v>44474</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -906,7 +905,7 @@
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>44445</v>
+        <v>44475</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
@@ -927,7 +926,7 @@
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>44446</v>
+        <v>44476</v>
       </c>
       <c r="B8" s="6">
         <v>5</v>
@@ -948,7 +947,7 @@
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>44447</v>
+        <v>44477</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
@@ -969,7 +968,7 @@
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>44448</v>
+        <v>44478</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
@@ -990,7 +989,7 @@
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>44449</v>
+        <v>44479</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
@@ -1011,7 +1010,7 @@
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>44450</v>
+        <v>44480</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
@@ -1032,7 +1031,7 @@
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>44451</v>
+        <v>44481</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -1053,7 +1052,7 @@
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>44452</v>
+        <v>44482</v>
       </c>
       <c r="B14" s="6">
         <v>5</v>
@@ -1074,10 +1073,10 @@
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>44453</v>
+        <v>44483</v>
       </c>
       <c r="B15" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
@@ -1095,10 +1094,10 @@
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>44454</v>
+        <v>44484</v>
       </c>
       <c r="B16" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
@@ -1116,7 +1115,7 @@
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>44455</v>
+        <v>44485</v>
       </c>
       <c r="B17" s="6">
         <v>5</v>
@@ -1137,7 +1136,7 @@
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>44456</v>
+        <v>44486</v>
       </c>
       <c r="B18" s="6">
         <v>5</v>
@@ -1158,7 +1157,7 @@
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>44457</v>
+        <v>44487</v>
       </c>
       <c r="B19" s="6">
         <v>5</v>
@@ -1179,10 +1178,10 @@
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>44458</v>
+        <v>44488</v>
       </c>
       <c r="B20" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -1200,10 +1199,10 @@
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>44459</v>
+        <v>44489</v>
       </c>
       <c r="B21" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
@@ -1221,7 +1220,7 @@
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>44460</v>
+        <v>44490</v>
       </c>
       <c r="B22" s="6">
         <v>5</v>
@@ -1242,7 +1241,7 @@
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>44461</v>
+        <v>44491</v>
       </c>
       <c r="B23" s="6">
         <v>5</v>
@@ -1263,10 +1262,10 @@
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>44462</v>
+        <v>44492</v>
       </c>
       <c r="B24" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
@@ -1284,7 +1283,7 @@
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>44463</v>
+        <v>44493</v>
       </c>
       <c r="B25" s="6">
         <v>5</v>
@@ -1305,7 +1304,7 @@
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>44464</v>
+        <v>44494</v>
       </c>
       <c r="B26" s="6">
         <v>5</v>
@@ -1326,7 +1325,7 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>44465</v>
+        <v>44495</v>
       </c>
       <c r="B27" s="6">
         <v>5</v>
@@ -1347,7 +1346,7 @@
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>44466</v>
+        <v>44496</v>
       </c>
       <c r="B28" s="6">
         <v>5</v>
@@ -1368,7 +1367,7 @@
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>44467</v>
+        <v>44497</v>
       </c>
       <c r="B29" s="6">
         <v>5</v>
@@ -1389,7 +1388,7 @@
     </row>
     <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>44468</v>
+        <v>44498</v>
       </c>
       <c r="B30" s="6">
         <v>5</v>
@@ -1410,7 +1409,7 @@
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <v>44469</v>
+        <v>44499</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -1431,7 +1430,7 @@
     </row>
     <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>44440</v>
+        <v>44500</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -1439,11 +1438,11 @@
       <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="1"/>
@@ -1452,10 +1451,10 @@
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
-        <v>44441</v>
+        <v>44470</v>
       </c>
       <c r="B33" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>7</v>
@@ -1474,10 +1473,10 @@
     </row>
     <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>44442</v>
+        <v>44471</v>
       </c>
       <c r="B34" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>7</v>
@@ -1496,10 +1495,10 @@
     </row>
     <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
-        <v>44443</v>
+        <v>44472</v>
       </c>
       <c r="B35" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>7</v>
@@ -1518,10 +1517,10 @@
     </row>
     <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>44444</v>
+        <v>44473</v>
       </c>
       <c r="B36" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>7</v>
@@ -1540,10 +1539,10 @@
     </row>
     <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>44445</v>
+        <v>44474</v>
       </c>
       <c r="B37" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>7</v>
@@ -1562,10 +1561,10 @@
     </row>
     <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>44446</v>
+        <v>44475</v>
       </c>
       <c r="B38" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>7</v>
@@ -1584,10 +1583,10 @@
     </row>
     <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>44447</v>
+        <v>44476</v>
       </c>
       <c r="B39" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>7</v>
@@ -1606,10 +1605,10 @@
     </row>
     <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <v>44448</v>
+        <v>44477</v>
       </c>
       <c r="B40" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>7</v>
@@ -1628,10 +1627,10 @@
     </row>
     <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
-        <v>44449</v>
+        <v>44478</v>
       </c>
       <c r="B41" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>7</v>
@@ -1650,10 +1649,10 @@
     </row>
     <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>44450</v>
+        <v>44479</v>
       </c>
       <c r="B42" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>7</v>
@@ -1672,10 +1671,10 @@
     </row>
     <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
-        <v>44451</v>
+        <v>44480</v>
       </c>
       <c r="B43" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>7</v>
@@ -1694,10 +1693,10 @@
     </row>
     <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>44452</v>
+        <v>44481</v>
       </c>
       <c r="B44" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>7</v>
@@ -1716,10 +1715,10 @@
     </row>
     <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
-        <v>44453</v>
+        <v>44482</v>
       </c>
       <c r="B45" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>7</v>
@@ -1738,10 +1737,10 @@
     </row>
     <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>44454</v>
+        <v>44483</v>
       </c>
       <c r="B46" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>7</v>
@@ -1760,10 +1759,10 @@
     </row>
     <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>44455</v>
+        <v>44484</v>
       </c>
       <c r="B47" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>7</v>
@@ -1782,10 +1781,10 @@
     </row>
     <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>44456</v>
+        <v>44485</v>
       </c>
       <c r="B48" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>7</v>
@@ -1804,10 +1803,10 @@
     </row>
     <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>44457</v>
+        <v>44486</v>
       </c>
       <c r="B49" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>7</v>
@@ -1826,10 +1825,10 @@
     </row>
     <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>44458</v>
+        <v>44487</v>
       </c>
       <c r="B50" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>7</v>
@@ -1848,10 +1847,10 @@
     </row>
     <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>44459</v>
+        <v>44488</v>
       </c>
       <c r="B51" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>7</v>
@@ -1870,10 +1869,10 @@
     </row>
     <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>44460</v>
+        <v>44489</v>
       </c>
       <c r="B52" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>7</v>
@@ -1892,10 +1891,10 @@
     </row>
     <row r="53" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>44461</v>
+        <v>44490</v>
       </c>
       <c r="B53" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>7</v>
@@ -1914,10 +1913,10 @@
     </row>
     <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>44462</v>
+        <v>44491</v>
       </c>
       <c r="B54" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>7</v>
@@ -1936,10 +1935,10 @@
     </row>
     <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>44463</v>
+        <v>44492</v>
       </c>
       <c r="B55" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>7</v>
@@ -1958,10 +1957,10 @@
     </row>
     <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>44464</v>
+        <v>44493</v>
       </c>
       <c r="B56" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>7</v>
@@ -1980,10 +1979,10 @@
     </row>
     <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>44465</v>
+        <v>44494</v>
       </c>
       <c r="B57" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>7</v>
@@ -2002,10 +2001,10 @@
     </row>
     <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>44466</v>
+        <v>44495</v>
       </c>
       <c r="B58" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>7</v>
@@ -2024,10 +2023,10 @@
     </row>
     <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>44467</v>
+        <v>44496</v>
       </c>
       <c r="B59" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>7</v>
@@ -2046,10 +2045,10 @@
     </row>
     <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
-        <v>44468</v>
+        <v>44497</v>
       </c>
       <c r="B60" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>7</v>
@@ -2068,10 +2067,10 @@
     </row>
     <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>44469</v>
+        <v>44498</v>
       </c>
       <c r="B61" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>7</v>
@@ -2089,6 +2088,21 @@
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>44499</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H62" s="3"/>
       <c r="I62" s="1"/>
       <c r="J62" s="4"/>
@@ -2096,420 +2110,945 @@
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>44500</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H63" s="3"/>
       <c r="I63" s="1"/>
       <c r="J63" s="4"/>
       <c r="K63" s="5"/>
       <c r="L63" s="4"/>
     </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>44501</v>
+      </c>
+      <c r="B64" s="6">
+        <v>7</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>44502</v>
+      </c>
+      <c r="B65" s="6">
+        <v>7</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>44503</v>
+      </c>
+      <c r="B66" s="6">
+        <v>7</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>44504</v>
+      </c>
+      <c r="B67" s="6">
+        <v>7</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>44505</v>
+      </c>
+      <c r="B68" s="6">
+        <v>7</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>44506</v>
+      </c>
+      <c r="B69" s="6">
+        <v>7</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>44507</v>
+      </c>
+      <c r="B70" s="6">
+        <v>7</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>44508</v>
+      </c>
+      <c r="B71" s="6">
+        <v>7</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>44509</v>
+      </c>
+      <c r="B72" s="6">
+        <v>7</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>44510</v>
+      </c>
+      <c r="B73" s="6">
+        <v>7</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>44511</v>
+      </c>
+      <c r="B74" s="6">
+        <v>7</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>44512</v>
+      </c>
+      <c r="B75" s="6">
+        <v>7</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>44513</v>
+      </c>
+      <c r="B76" s="6">
+        <v>7</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>44514</v>
+      </c>
+      <c r="B77" s="6">
+        <v>7</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>44515</v>
+      </c>
+      <c r="B78" s="6">
+        <v>7</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>44516</v>
+      </c>
+      <c r="B79" s="6">
+        <v>7</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>44517</v>
+      </c>
+      <c r="B80" s="6">
+        <v>7</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>44518</v>
+      </c>
+      <c r="B81" s="6">
+        <v>7</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>44519</v>
+      </c>
+      <c r="B82" s="6">
+        <v>7</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
+        <v>44520</v>
+      </c>
+      <c r="B83" s="6">
+        <v>7</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>44521</v>
+      </c>
+      <c r="B84" s="6">
+        <v>7</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>44522</v>
+      </c>
+      <c r="B85" s="6">
+        <v>7</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>44523</v>
+      </c>
+      <c r="B86" s="6">
+        <v>7</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>44524</v>
+      </c>
+      <c r="B87" s="6">
+        <v>7</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>44525</v>
+      </c>
+      <c r="B88" s="6">
+        <v>7</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>44526</v>
+      </c>
+      <c r="B89" s="6">
+        <v>7</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>44527</v>
+      </c>
+      <c r="B90" s="6">
+        <v>7</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>44528</v>
+      </c>
+      <c r="B91" s="6">
+        <v>7</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="7">
+        <v>44529</v>
+      </c>
+      <c r="B92" s="6">
+        <v>4</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>44530</v>
+      </c>
+      <c r="B93" s="6">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="9"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="6"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="9"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="9"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="9"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="9"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="6"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="9"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="6"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="9"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="6"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="9"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="6"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="6"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="6"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="6"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="9"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="6"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="9"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="6"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="9"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="6"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="9"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="6"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="9"/>
+      <c r="A112" s="8"/>
       <c r="B112" s="6"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="9"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="6"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="9"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="6"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="9"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="6"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="9"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="6"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="9"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="6"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="9"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="9"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="9"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="9"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="6"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="9"/>
+      <c r="A122" s="8"/>
       <c r="B122" s="6"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="9"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="10"/>
+      <c r="A155" s="9"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="10"/>
+      <c r="A156" s="9"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="10"/>
+      <c r="A157" s="9"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="10"/>
+      <c r="A158" s="9"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="10"/>
+      <c r="A159" s="9"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="10"/>
+      <c r="A160" s="9"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="10"/>
+      <c r="A161" s="9"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="10"/>
+      <c r="A162" s="9"/>
       <c r="B162" s="6"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="10"/>
+      <c r="A163" s="9"/>
       <c r="B163" s="6"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="10"/>
+      <c r="A164" s="9"/>
       <c r="B164" s="6"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="10"/>
+      <c r="A165" s="9"/>
       <c r="B165" s="6"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="10"/>
+      <c r="A166" s="9"/>
       <c r="B166" s="6"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="10"/>
+      <c r="A167" s="9"/>
       <c r="B167" s="6"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="10"/>
+      <c r="A168" s="9"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="10"/>
+      <c r="A169" s="9"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="10"/>
+      <c r="A170" s="9"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="10"/>
+      <c r="A171" s="9"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="10"/>
+      <c r="A172" s="9"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="10"/>
+      <c r="A173" s="9"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="10"/>
+      <c r="A174" s="9"/>
       <c r="B174" s="6"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="10"/>
+      <c r="A175" s="9"/>
       <c r="B175" s="6"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="10"/>
+      <c r="A176" s="9"/>
       <c r="B176" s="6"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="10"/>
+      <c r="A177" s="9"/>
       <c r="B177" s="6"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="10"/>
+      <c r="A178" s="9"/>
       <c r="B178" s="6"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="10"/>
+      <c r="A179" s="9"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="10"/>
+      <c r="A180" s="9"/>
       <c r="B180" s="6"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="10"/>
+      <c r="A181" s="9"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="10"/>
+      <c r="A182" s="9"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="10"/>
+      <c r="A183" s="9"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
